--- a/LM2ReadandList/bin/Debug/NewListOut5.xlsx
+++ b/LM2ReadandList/bin/Debug/NewListOut5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00570\Desktop\LM2ReadandList\LM2ReadandList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00570\Desktop\GitHub\LM2ReadandList\LM2ReadandList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCF41BE-037C-4DDF-AB89-E7FCF2E8265E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07DBFB6-73E2-492E-AA06-F2D203CE45BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="15支嘜頭_1" sheetId="18" r:id="rId1"/>
@@ -55,7 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -126,6 +126,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -318,13 +325,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
@@ -332,8 +354,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -350,43 +387,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -421,7 +428,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>765031</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>185875</xdr:rowOff>
+      <xdr:rowOff>182065</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -784,7 +791,7 @@
       <selection activeCell="G1" sqref="G1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.44140625" style="1" customWidth="1"/>
     <col min="2" max="8" width="12.109375" style="1" customWidth="1"/>
@@ -798,15 +805,15 @@
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="39.9" customHeight="1" thickBot="1">
+    <row r="1" spans="1:17" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="4"/>
       <c r="C1" s="11"/>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="19"/>
       <c r="G1" s="38"/>
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
@@ -815,182 +822,185 @@
       <c r="L1" s="39"/>
       <c r="M1" s="40"/>
     </row>
-    <row r="2" spans="1:17" ht="39.9" customHeight="1" thickBot="1">
+    <row r="2" spans="1:17" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
       <c r="C2" s="12"/>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="37"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="19"/>
       <c r="O2" s="9"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="1:17" ht="39.9" customHeight="1" thickBot="1">
+    <row r="3" spans="1:17" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="37"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="19"/>
       <c r="O3" s="9"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="7"/>
     </row>
-    <row r="4" spans="1:17" ht="39.9" customHeight="1" thickBot="1">
+    <row r="4" spans="1:17" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="5"/>
       <c r="C4" s="12"/>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="37"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="19"/>
       <c r="O4" s="6"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="7"/>
     </row>
-    <row r="5" spans="1:17" ht="39.9" customHeight="1" thickBot="1">
-      <c r="A5" s="28" t="s">
+    <row r="5" spans="1:17" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="34"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="29"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
       <c r="Q5" s="7"/>
     </row>
-    <row r="6" spans="1:17" ht="74.7" customHeight="1" thickBot="1">
-      <c r="A6" s="22"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="21"/>
+    <row r="6" spans="1:17" ht="74.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="26"/>
       <c r="K6" s="8"/>
       <c r="L6" s="6"/>
       <c r="M6" s="13"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
       <c r="Q6" s="7"/>
     </row>
-    <row r="7" spans="1:17" ht="74.7" customHeight="1" thickBot="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="21"/>
+    <row r="7" spans="1:17" ht="74.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="26"/>
       <c r="K7" s="8"/>
       <c r="L7" s="6"/>
       <c r="M7" s="13"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
       <c r="Q7" s="7"/>
     </row>
-    <row r="8" spans="1:17" ht="74.7" customHeight="1" thickBot="1">
-      <c r="A8" s="22"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="21"/>
+    <row r="8" spans="1:17" ht="74.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="26"/>
       <c r="K8" s="8"/>
       <c r="L8" s="6"/>
       <c r="M8" s="13"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
       <c r="Q8" s="7"/>
     </row>
-    <row r="9" spans="1:17" ht="42" customHeight="1" thickBot="1">
+    <row r="9" spans="1:17" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="25" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="27"/>
+      <c r="I9" s="37"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="19"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="32"/>
       <c r="O9" s="10"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="7"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N12" s="7"/>
     </row>
-    <row r="17" spans="15:15">
+    <row r="17" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O17" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="G3:M3"/>
-    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="H9:I9"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="O5:P8"/>
     <mergeCell ref="A6:B6"/>
@@ -1002,17 +1012,14 @@
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="K5:M5"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G3:M3"/>
+    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
